--- a/src/数通/3-传输层/TCP报文结构.xlsx
+++ b/src/数通/3-传输层/TCP报文结构.xlsx
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序列号（Sequece Number）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +90,10 @@
   </si>
   <si>
     <t>目的端口号（Destination Port）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上层数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,15 +133,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -164,11 +170,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,10 +192,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG9"/>
+  <dimension ref="B1:AH9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+      <selection activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -474,7 +495,7 @@
     <col min="35" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -572,9 +593,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:33" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:34" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -592,7 +613,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -609,10 +630,11 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
+      <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="2:33" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -645,10 +667,11 @@
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
+      <c r="AH3" s="6"/>
     </row>
-    <row r="4" spans="2:33" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:34" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -681,8 +704,9 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
+      <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="2:33" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:34" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -695,28 +719,28 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="R5" s="4" t="s">
@@ -737,8 +761,9 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
+      <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="2:33" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:34" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -775,82 +800,84 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
+      <c r="AH6" s="6"/>
     </row>
-    <row r="7" spans="2:33" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:34" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
     </row>
-    <row r="8" spans="2:33" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
+    <row r="8" spans="2:34" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
     </row>
-    <row r="9" spans="2:33" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:34" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="AH2:AH6"/>
     <mergeCell ref="B6:Q6"/>
     <mergeCell ref="R6:AG6"/>
     <mergeCell ref="B7:AG7"/>
